--- a/Google/Test Data/Google Data.xlsx
+++ b/Google/Test Data/Google Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249079\HybridFramework\Google\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1F031B-236D-413F-8995-E79C9467D6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B3E6AB-10EB-4080-8AC0-E977E2D768DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
